--- a/Performance VCO BOM.xlsx
+++ b/Performance VCO BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!SoonCloud\Projecten Electronica\Eagle Projecten\LMNC VCO\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvirag\Documents\GitHub\performancevco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E394D801-149F-4907-B5D7-D518C1FAF576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9607AA-C336-467E-B3A1-73A57E232984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0792F7F5-2DC3-4038-93DC-FFA7B9652F7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0792F7F5-2DC3-4038-93DC-FFA7B9652F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA466033-CEB2-4DF9-8032-ED534AD0402C}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
